--- a/club_df_ptme.xlsx
+++ b/club_df_ptme.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +432,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01320</t>
+          <t>CAP/CDSF/ST01541</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1993-07-10</t>
+          <t>1992-04-06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Synergie</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -457,12 +457,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I2">
@@ -488,22 +488,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01320</t>
+          <t>CAP/CDSF/ST01687</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1993-07-10</t>
+          <t>1991-01-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Synergie</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -513,12 +513,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I3">
@@ -533,33 +533,33 @@
         </is>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1- Present</t>
+          <t>11-autre</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01904</t>
+          <t>CAP/CDSF/ST03220</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1984-01-08</t>
+          <t>1990-04-20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Synergie</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,12 +569,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I4">
@@ -589,33 +589,33 @@
         </is>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>11-autre</t>
+          <t>1- Present</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01904</t>
+          <t>CAP/CDSF/ST03305</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1984-01-08</t>
+          <t>2005-02-28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Synergie</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -625,12 +625,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I5">
@@ -656,22 +656,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01907</t>
+          <t>CAP/CDSF/ST03484</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2003-10-15</t>
+          <t>2002-09-29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Synergie</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -681,12 +681,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I6">
@@ -701,33 +701,33 @@
         </is>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>11-autre</t>
+          <t>1- Present</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01907</t>
+          <t>CAP/CDSF/ST03489</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2003-10-15</t>
+          <t>1992-09-27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Synergie</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I7">
@@ -768,22 +768,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01918</t>
+          <t>CAP/CDSF/ST03491</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1984-05-02</t>
+          <t>1993-07-08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Synergie</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I8">
@@ -824,22 +824,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01918</t>
+          <t>CAP/CDSF/ST03492</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1984-05-02</t>
+          <t>1983-08-24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Synergie</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -849,12 +849,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I9">
@@ -880,22 +880,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01923</t>
+          <t>CAP/CDSF/ST03499</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1990-03-15</t>
+          <t>1986-06-15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Synergie</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I10">
@@ -925,33 +925,33 @@
         </is>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1- Present</t>
+          <t>11-autre</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01923</t>
+          <t>CAP/CDSF/ST03502</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1990-03-15</t>
+          <t>2004-02-26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Synergie</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I11">
@@ -992,22 +992,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST00942</t>
+          <t>CAP/CDSF/ST03509</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Clinique Medico-Chirurgicale Dugue</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1991-01-13</t>
+          <t>1994-02-06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Orchidee 3</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I12">
@@ -1037,33 +1037,33 @@
         </is>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1- Present</t>
+          <t>11-autre</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01320</t>
+          <t>CAP/CDSF/ST03513</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Clinique Medico-Chirurgicale Dugue</t>
+          <t>CDS La Fossette</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1993-07-10</t>
+          <t>1997-08-30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Orchidee 3</t>
+          <t>Femmes solidaires Cap</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I13">
@@ -1104,22 +1104,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01904</t>
+          <t>CAP/SECH/ST00821</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Clinique Medico-Chirurgicale Dugue</t>
+          <t>Clinique J-Benjamin</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1984-01-08</t>
+          <t>2002-04-04</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Orchidee 3</t>
+          <t>Femmes Independantes I</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I14">
@@ -1149,33 +1149,33 @@
         </is>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>11-autre</t>
+          <t>5-absence introuvable</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01907</t>
+          <t>CAP/SECH/ST00849</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Clinique Medico-Chirurgicale Dugue</t>
+          <t>Clinique J-Benjamin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2003-10-15</t>
+          <t>1998-10-22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Orchidee 3</t>
+          <t>Femmes Independantes I</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I15">
@@ -1216,22 +1216,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01918</t>
+          <t>CAP/SECH/ST00863</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Clinique Medico-Chirurgicale Dugue</t>
+          <t>Clinique J-Benjamin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1984-05-02</t>
+          <t>2006-06-11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Orchidee 3</t>
+          <t>Femmes Independantes I</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="I16">
@@ -1272,22 +1272,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01923</t>
+          <t>GON/CDIR/ST02302</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Clinique Medico-Chirurgicale Dugue</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1990-03-15</t>
+          <t>1996-05-05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Orchidee 3</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I17">
@@ -1317,33 +1317,33 @@
         </is>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>11-autre</t>
+          <t>1- Present</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01904</t>
+          <t>GON/CDIR/ST02434</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Clinique Medico-Chirurgicale Dugue</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1984-01-08</t>
+          <t>1993-02-13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sagesse Divine 1 de CMCD</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I18">
@@ -1384,22 +1384,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST01813</t>
+          <t>GON/CDIR/ST02441</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1989-02-17</t>
+          <t>2005-10-12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I19">
@@ -1429,33 +1429,33 @@
         </is>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>1- Present</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST01813</t>
+          <t>GON/CDIR/ST02443</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1989-02-17</t>
+          <t>1992-12-22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1465,12 +1465,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I20">
@@ -1485,33 +1485,33 @@
         </is>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>11-autre</t>
+          <t>10-absence oublie</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST01813</t>
+          <t>GON/CDIR/ST02462</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1989-02-17</t>
+          <t>1995-12-25</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1521,12 +1521,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I21">
@@ -1552,22 +1552,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST02371</t>
+          <t>GON/CDIR/ST02469</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1992-12-12</t>
+          <t>1989-03-30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1577,12 +1577,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I22">
@@ -1597,33 +1597,33 @@
         </is>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>11-autre</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST02371</t>
+          <t>GON/CDIR/ST02472</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1992-12-12</t>
+          <t>1991-08-02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1633,12 +1633,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I23">
@@ -1664,22 +1664,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST02371</t>
+          <t>GON/CSKS/ST01342</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1992-12-12</t>
+          <t>2002-11-22</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1689,12 +1689,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I24">
@@ -1709,33 +1709,33 @@
         </is>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>11-autre</t>
+          <t>1- Present</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST02852</t>
+          <t>GON/CSKS/ST01900</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1987-05-15</t>
+          <t>1992-12-12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1745,12 +1745,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I25">
@@ -1765,33 +1765,33 @@
         </is>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1- Present</t>
+          <t>11-autre</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST02852</t>
+          <t>GON/CSKS/ST02134</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1987-05-15</t>
+          <t>1987-04-23</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I26">
@@ -1821,33 +1821,33 @@
         </is>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>11-autre</t>
+          <t>1- Present</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST03092</t>
+          <t>GON/CSKS/ST02648</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1991-09-06</t>
+          <t>1982-10-22</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I27">
@@ -1877,33 +1877,33 @@
         </is>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>1- Present</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST03092</t>
+          <t>GON/CSKS/ST02947</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1991-09-06</t>
+          <t>1992-05-15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I28">
@@ -1944,22 +1944,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST03092</t>
+          <t>GON/CSKS/ST03115</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1991-09-06</t>
+          <t>2000-08-07</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I29">
@@ -1989,33 +1989,33 @@
         </is>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>11-autre</t>
+          <t>1- Present</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST03290</t>
+          <t>GON/CSKS/ST03116</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1994-08-09</t>
+          <t>1998-01-27</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I30">
@@ -2056,22 +2056,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST03290</t>
+          <t>GON/CSKS/ST03129</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1994-08-09</t>
+          <t>1996-06-14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I31">
@@ -2112,22 +2112,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST03290</t>
+          <t>GON/CSKS/ST03136</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1994-08-09</t>
+          <t>1988-07-25</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I32">
@@ -2168,22 +2168,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST03696</t>
+          <t>GON/CSKS/ST03143</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2005-05-11</t>
+          <t>1995-02-14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2193,12 +2193,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I33">
@@ -2213,33 +2213,33 @@
         </is>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>1- Present</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST03696</t>
+          <t>GON/CSKS/ST03154</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2005-05-11</t>
+          <t>2004-01-10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2249,12 +2249,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I34">
@@ -2269,33 +2269,33 @@
         </is>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>11-autre</t>
+          <t>1- Present</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST03696</t>
+          <t>GON/SERV/ST00917</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
+          <t>CS K-Soleil - Gonaïves</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2005-05-11</t>
+          <t>2001-08-18</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ambassadrice 2</t>
+          <t>Acajou</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2305,12 +2305,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="I35">
@@ -2330,1462 +2330,6 @@
       <c r="N35" t="inlineStr">
         <is>
           <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03717</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1984-02-07</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2025-05-21</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>1- Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03717</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1984-02-07</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2025-06-11</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>1- Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03717</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1984-02-07</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M38">
-        <v>11</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03720</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1990-02-14</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2025-05-21</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03720</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1990-02-14</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2025-06-11</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M40">
-        <v>11</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03720</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1990-02-14</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M41">
-        <v>11</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03756</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1986-12-02</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2025-06-11</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M42">
-        <v>11</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03756</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1986-12-02</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>1- Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03763</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1989-07-21</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2025-06-11</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>1- Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03763</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1989-07-21</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M45">
-        <v>11</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03768</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1997-02-01</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>1- Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03770</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2003-11-25</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M47">
-        <v>11</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03777</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1991-06-08</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Ambassadrice 2</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M48">
-        <v>11</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST01813</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1989-02-17</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Ambassadrices CMSO</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M49">
-        <v>11</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST02371</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1992-12-12</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Ambassadrices CMSO</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M50">
-        <v>11</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST02371</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1992-12-12</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Ambassadrices CMSO</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>1- Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST02371</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1992-12-12</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Ambassadrices CMSO</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M52">
-        <v>11</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST02852</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1987-05-15</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Ambassadrices CMSO</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M53">
-        <v>11</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03290</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1994-08-09</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Ambassadrices CMSO</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M54">
-        <v>11</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03696</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2005-05-11</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Ambassadrices CMSO</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M55">
-        <v>11</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST01813</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1989-02-17</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Zanmi Lasante 3</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M56">
-        <v>11</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST01813</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>1989-02-17</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Zanmi Lasante 3</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M57">
-        <v>11</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>11-autre</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03092</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1991-09-06</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Zanmi Lasante 3</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>1- Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03092</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>1991-09-06</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Zanmi Lasante 3</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>1- Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03290</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>1994-08-09</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Zanmi Lasante 3</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>1- Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>CAP/CMSO/ST03290</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Centre Medico-Social de Ouanaminthe</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>1994-08-09</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Zanmi Lasante 3</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Club Mere</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>1- Present</t>
         </is>
       </c>
     </row>

--- a/club_df_ptme.xlsx
+++ b/club_df_ptme.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,6 +429,5244 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST00190</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1991-10-06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST00214</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1986-12-26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST00550</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1990-03-14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST00637</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1984-07-07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST01044</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2001-06-16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02007</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1998-07-01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02501</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2005-06-15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02811</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2005-06-03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02830</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2002-06-27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02854</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1994-09-09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02858</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2006-03-17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02864</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1997-01-28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02883</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1993-08-28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02884</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1995-09-06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02888</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1984-09-20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02890</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1991-07-07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02893</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1998-01-01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02901</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1993-05-20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST02923</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Centre de Sante Avec Lits Trou-du-Nord</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1992-10-09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Femmes Vaillantes 6</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CAP/CMBV/ST01939</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1983-07-14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CAP/CMBV/ST03222</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1994-09-29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CAP/CMBV/ST03584</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1989-05-21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CAP/CMBV/ST03801</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1995-02-14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CAP/CMBV/ST03867</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1982-11-23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M25">
+        <v>11</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CAP/CMBV/ST03973</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2009-11-10</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CAP/CMBV/ST04051</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1995-05-18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CAP/CMBV/ST04065</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2005-11-25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CAP/CMBV/ST04091</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1995-12-23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CAP/CMBV/ST04092</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1997-05-08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CAP/NEWH/ST00281</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1991-04-06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CAP/NEWH/ST00312</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1992-07-02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>11</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CAP/NEWH/ST00563</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2007-06-25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CAP/NEWH/ST00566</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2001-01-01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PAP/GCHO/ST01925</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CLINIQUE MEDICALE BETHESDA DE VAUDREUIL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2006-09-26</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Synergie</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CAP/HSCM/ST02041</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hôpital Sacre Coeur de Milot</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2006-09-29</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Fanm vanyan 8</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CAP/HSCM/ST02647</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Hôpital Sacre Coeur de Milot</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1984-09-18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Fanm vanyan 8</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>11</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CAP/HSCM/ST03346</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hôpital Sacre Coeur de Milot</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1990-06-10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Fanm vanyan 8</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>11</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CAP/HSCM/ST04212</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Hôpital Sacre Coeur de Milot</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1997-07-25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Fanm vanyan 8</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CAP/HSCM/ST04867</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hôpital Sacre Coeur de Milot</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1989-01-02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Fanm vanyan 8</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CAP/HSCM/ST05020</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hôpital Sacre Coeur de Milot</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2003-12-22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Fanm vanyan 8</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>11</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CAP/HSCM/ST05026</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hôpital Sacre Coeur de Milot</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1986-10-12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Fanm vanyan 8</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CAP/SECH/ST00759</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Clinique J-Benjamin</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2006-12-24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>lauriers</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CAP/SECH/ST00826</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Clinique J-Benjamin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1997-11-11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>lauriers</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CAP/SECH/ST00833</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Clinique J-Benjamin</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1991-09-15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>lauriers</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M45">
+        <v>11</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CAP/SECH/ST00836</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Clinique J-Benjamin</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1990-02-05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>lauriers</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M46">
+        <v>11</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CAP/SECH/ST00837</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Clinique J-Benjamin</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1996-06-24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>lauriers</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CAP/SECH/ST00843</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Clinique J-Benjamin</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2006-06-06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>lauriers</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M48">
+        <v>11</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CAP/SECH/ST00845</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Clinique J-Benjamin</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2000-04-21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>lauriers</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M49">
+        <v>11</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CAP/SECH/ST00850</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Clinique J-Benjamin</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1992-10-11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>lauriers</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M50">
+        <v>11</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PAP/CMSP/ST00614</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Centre de Santé de Petite Place Cazeau</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1984-09-07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Safe Place</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PAP/CMSP/ST01733</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Centre de Santé de Petite Place Cazeau</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1996-05-02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Safe Place</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PAP/CMSP/ST02001</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Centre de Santé de Petite Place Cazeau</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1999-07-05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Safe Place</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PAP/CMSP/ST02006</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Centre de Santé de Petite Place Cazeau</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1998-04-12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Safe Place</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PAP/CMSP/ST02008</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Centre de Santé de Petite Place Cazeau</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1988-07-22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Safe Place</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PAP/CMSP/ST02010</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Centre de Santé de Petite Place Cazeau</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2000-02-26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Safe Place</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PAP/CMSP/ST02013</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Centre de Santé de Petite Place Cazeau</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1985-05-24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Safe Place</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PAP/CMSP/ST02018</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Centre de Santé de Petite Place Cazeau</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1998-03-14</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Safe Place</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PAP/HBMP/ST03073</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Hôpital Bernard Mevs</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1983-05-08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Afro-Queen</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PAP/HBMP/ST05044</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hôpital Bernard Mevs</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1985-05-02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Afro-Queen</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PAP/HBMP/ST05323</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hôpital Bernard Mevs</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1983-05-15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Afro-Queen</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PAP/HBMP/ST05348</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hôpital Bernard Mevs</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1996-01-05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Afro-Queen</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PAP/HFSC/ST04390</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Hopital Foyer Saint-Camille</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1998-11-14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Esperanza</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PAP/HFSC/ST04498</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Hopital Foyer Saint-Camille</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1993-11-22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Esperanza</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PAP/HFSC/ST04818</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Hopital Foyer Saint-Camille</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1988-03-05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Esperanza</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PAP/HFSC/ST04820</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hopital Foyer Saint-Camille</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2002-01-01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Esperanza</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PAP/HFSC/ST04833</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Hopital Foyer Saint-Camille</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2000-12-08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Esperanza</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PAP/HSFS/ST00157</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>St. Francoise de Sales</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1988-11-07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Alliance</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PAP/HSFS/ST00586</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>St. Francoise de Sales</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Alliance</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PAP/HSFS/ST01028</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>St. Francoise de Sales</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1984-09-07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Alliance</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PAP/HSFS/ST01163</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>St. Francoise de Sales</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1987-02-23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Alliance</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PAP/HSFS/ST01941</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>St. Francoise de Sales</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1989-05-09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Alliance</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PAP/HSFS/ST01958</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>St. Francoise de Sales</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1989-07-17</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Alliance</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PAP/NPFS/ST00223</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Hôpital Saint Damien NOS PETITS FRERES ET SOEURS (NPFS)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2003-11-08</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Les Roses</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PAP/NPFS/ST01290</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Hôpital Saint Damien NOS PETITS FRERES ET SOEURS (NPFS)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1999-11-01</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Les Roses</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PAP/NPFS/ST03221</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Hôpital Saint Damien NOS PETITS FRERES ET SOEURS (NPFS)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1985-03-09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Les Roses</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PAP/NPFS/ST04149</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Hôpital Saint Damien NOS PETITS FRERES ET SOEURS (NPFS)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1990-01-15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Les Roses</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PAP/NPFS/ST04438</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Hôpital Saint Damien NOS PETITS FRERES ET SOEURS (NPFS)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1992-01-01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Les Roses</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>5-absence introuvable</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PAP/NPFS/ST04491</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Hôpital Saint Damien NOS PETITS FRERES ET SOEURS (NPFS)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1991-01-01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Les Roses</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PAP/NPFS/ST04518</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Hôpital Saint Damien NOS PETITS FRERES ET SOEURS (NPFS)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1994-09-19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Les Roses</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>5-absence introuvable</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST00427</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1992-01-01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST00630</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1987-04-01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST00769</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1994-12-24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST00795</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1987-06-17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M84">
+        <v>11</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST00945</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2000-01-08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST01108</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1998-04-11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST01251</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1987-05-16</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M87">
+        <v>11</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST01254</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1992-06-18</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M88">
+        <v>11</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST01260</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1990-06-15</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST01273</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1994-02-10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M90">
+        <v>11</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST01274</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1983-09-10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST01277</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1992-02-25</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M92">
+        <v>11</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST01281</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M93">
+        <v>11</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SMA/CSSM/ST01283</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Centre Santé de Saint Michel de l’Attalaye</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2007-02-08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Ambassadrice 4</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Club Mere</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M94">
+        <v>11</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
